--- a/output/fit_clients/fit_round_140.xlsx
+++ b/output/fit_clients/fit_round_140.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1840102074.330784</v>
+        <v>1597330844.617339</v>
       </c>
       <c r="F2" t="n">
-        <v>0.107103035807609</v>
+        <v>0.0955130472096733</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02743664872188374</v>
+        <v>0.04434685886690111</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>920051011.2477669</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2107084525.667907</v>
+        <v>1883944952.577624</v>
       </c>
       <c r="F3" t="n">
-        <v>0.159091247463256</v>
+        <v>0.1846746360645843</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04671919445284638</v>
+        <v>0.04035086117474092</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1053542319.433639</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4581389832.684176</v>
+        <v>4711914899.338697</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1358707231933043</v>
+        <v>0.1488505997731962</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03529616736394402</v>
+        <v>0.0361920252602133</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2290694971.665225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2988558292.461792</v>
+        <v>3551138254.644003</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09969229934721095</v>
+        <v>0.09978920542044871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04620952235317367</v>
+        <v>0.049255515000154</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1494279216.765127</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2182473025.417517</v>
+        <v>2275778814.01479</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09226761441213038</v>
+        <v>0.1323760790796457</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04258059412106397</v>
+        <v>0.05089892977019794</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1091236522.515461</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2409413049.221117</v>
+        <v>2867260433.052154</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06539033274864545</v>
+        <v>0.09921416525556283</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03902818643738211</v>
+        <v>0.04180556265535444</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1204706546.366153</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2752875749.376493</v>
+        <v>3333829274.003168</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1518436411496226</v>
+        <v>0.1620614102566228</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02774356150627546</v>
+        <v>0.03247201967899722</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>45</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1376437906.899831</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1895675171.779469</v>
+        <v>2210660175.357935</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1366106249976217</v>
+        <v>0.1823762284431263</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03199213855437773</v>
+        <v>0.03726180262726743</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>947837626.9285746</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5117291950.634261</v>
+        <v>4360784406.539813</v>
       </c>
       <c r="F10" t="n">
-        <v>0.155965021155068</v>
+        <v>0.1415665301664616</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03291706843091958</v>
+        <v>0.03385485711809789</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>59</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2558646083.691782</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2759056977.989277</v>
+        <v>3988621006.966787</v>
       </c>
       <c r="F11" t="n">
-        <v>0.138600202902026</v>
+        <v>0.1598528877926663</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03836476139531031</v>
+        <v>0.0471989656201041</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>58</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1379528415.083167</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2201520144.840257</v>
+        <v>2736719649.666085</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1447378403299807</v>
+        <v>0.167502002974202</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03375399078790856</v>
+        <v>0.04440094618057045</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>49</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1100760017.280669</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5282725164.301372</v>
+        <v>4668118866.161269</v>
       </c>
       <c r="F13" t="n">
-        <v>0.101357763561955</v>
+        <v>0.08819710693080196</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02319871068035782</v>
+        <v>0.02415884756002672</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>47</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2641362571.867423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3878202081.005001</v>
+        <v>3786918689.135674</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1807183883964889</v>
+        <v>0.1406585956892837</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03600666042669255</v>
+        <v>0.02773196748327311</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>45</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1939101011.288899</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1846481962.027376</v>
+        <v>1275783421.507768</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09919451057325167</v>
+        <v>0.0894559742702065</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03206235946667046</v>
+        <v>0.03996982939620511</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>923241145.0211339</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2013715323.133241</v>
+        <v>2827001913.425376</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07386474681543211</v>
+        <v>0.1029282428382058</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03268536322968809</v>
+        <v>0.04546277488234883</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1006857735.788768</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4749617637.643279</v>
+        <v>3879680306.295848</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1633799336651485</v>
+        <v>0.1602107249810023</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03371592411099967</v>
+        <v>0.0530036022882133</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>41</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2374808816.350704</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2763857342.365172</v>
+        <v>2858531006.280486</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1167659409651505</v>
+        <v>0.1679747293265595</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02245534416899087</v>
+        <v>0.02608255836100229</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>46</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1381928718.458066</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>870147251.3350774</v>
+        <v>1098489409.231669</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1361120158186252</v>
+        <v>0.1533875903498757</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02452604687552793</v>
+        <v>0.01953149721826559</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>435073623.2619779</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2567238237.52354</v>
+        <v>1805943794.418465</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1602340421794345</v>
+        <v>0.1116279807525396</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0219167302736295</v>
+        <v>0.02284685065331489</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>22</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1283619084.647461</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2435189005.794286</v>
+        <v>2485730608.60066</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07751444662110012</v>
+        <v>0.07433899303588021</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04090103812243272</v>
+        <v>0.03291330005609699</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1217594497.186194</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3915615216.564417</v>
+        <v>3955103499.313329</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08777102320747665</v>
+        <v>0.08967834704360979</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05174902582925756</v>
+        <v>0.05258250233266492</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>40</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1957807614.93554</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1442862163.414732</v>
+        <v>1247223485.836511</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1839479061239629</v>
+        <v>0.1601211634273204</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04920545770283943</v>
+        <v>0.03632031797435405</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>721431077.2280511</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4130624104.929163</v>
+        <v>2628098951.97594</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09924918650455104</v>
+        <v>0.1015094972860932</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03418323905106312</v>
+        <v>0.03218704659375658</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>41</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2065312011.62956</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1425947168.647067</v>
+        <v>1000286502.42525</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08331901022793912</v>
+        <v>0.1217242376568938</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0253045184665894</v>
+        <v>0.02597154512809</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>712973550.2641275</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1034110395.00331</v>
+        <v>1436042210.372756</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09371113873061369</v>
+        <v>0.1019189782950682</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0318199950056277</v>
+        <v>0.02669037917993503</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>517055177.9335473</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3934910524.743608</v>
+        <v>3309733741.286744</v>
       </c>
       <c r="F27" t="n">
-        <v>0.107606825732451</v>
+        <v>0.1161958361542386</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02422554629690003</v>
+        <v>0.01639269057051371</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1967455275.744799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3141912071.66536</v>
+        <v>2786873829.701355</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09849450490139747</v>
+        <v>0.1014161895245029</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03233828775573659</v>
+        <v>0.04773717305532389</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>45</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1570956059.321831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3868917467.453555</v>
+        <v>4947262437.145318</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1213440970684918</v>
+        <v>0.1195281323068627</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04009206765127874</v>
+        <v>0.03282980352144805</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1934458759.601733</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2089996093.364615</v>
+        <v>1453550253.361229</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1174955627243186</v>
+        <v>0.1365449511671024</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03168161868476414</v>
+        <v>0.03287050924129789</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1044998094.325197</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1189655017.330239</v>
+        <v>953526486.2332444</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09361265862603087</v>
+        <v>0.07483369714608475</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04777300202515748</v>
+        <v>0.04364354717079325</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>594827462.527853</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1628721201.071009</v>
+        <v>1328697182.60202</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08077008536250992</v>
+        <v>0.1135351641510667</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02479663690783587</v>
+        <v>0.02762345837650114</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>814360695.483899</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2105759639.785943</v>
+        <v>2909670888.649004</v>
       </c>
       <c r="F33" t="n">
-        <v>0.169837147958679</v>
+        <v>0.1545683868793058</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03836921283473068</v>
+        <v>0.05611936320172604</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>42</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1052879891.629862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1197385391.484385</v>
+        <v>1165718874.059299</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1135310912909323</v>
+        <v>0.09172606421940172</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0233836779545472</v>
+        <v>0.02449652019054541</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>598692701.1668012</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>927122439.8232706</v>
+        <v>841704014.0880324</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1128495442980987</v>
+        <v>0.08153316397904141</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03278500490876467</v>
+        <v>0.0329905719952499</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>463561254.4307914</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2530746173.869413</v>
+        <v>3005513197.272066</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1658466461055317</v>
+        <v>0.1266863734635853</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02860047473443165</v>
+        <v>0.0205557111128717</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>35</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1265373106.412879</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1915374381.394558</v>
+        <v>2160728408.621774</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09114965775647797</v>
+        <v>0.07768537044819723</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03200682637637521</v>
+        <v>0.03926389527145475</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>38</v>
-      </c>
-      <c r="J37" t="n">
-        <v>957687206.2880105</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1546658314.158712</v>
+        <v>1799174761.646608</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09850321907142871</v>
+        <v>0.07898248149684357</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03115580531287408</v>
+        <v>0.03841545955776062</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>773329199.6985538</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2225114382.157542</v>
+        <v>2014584775.952074</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1367802190928454</v>
+        <v>0.1893145486218399</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03263436395364117</v>
+        <v>0.02073377627318118</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1112557151.396428</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1624938218.590673</v>
+        <v>1763315468.025537</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1319452536698973</v>
+        <v>0.1111381115483555</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03984171240352442</v>
+        <v>0.05478029731110512</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>812469044.1789725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2370729527.866531</v>
+        <v>2144182493.348475</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1310536665326667</v>
+        <v>0.1406416945444495</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04638759005066712</v>
+        <v>0.04415249090194932</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>34</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1185364801.823682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3693103741.144936</v>
+        <v>3908809142.102979</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1247375807271089</v>
+        <v>0.1257383187558061</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04058043857742751</v>
+        <v>0.04473112312879238</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1846551878.670762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2229963346.374095</v>
+        <v>2726554911.36423</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1722809869015423</v>
+        <v>0.1840013844740568</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02512463660392539</v>
+        <v>0.02119642495744808</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>47</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1114981748.958642</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1956577419.757753</v>
+        <v>1647748009.982149</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07083454539058152</v>
+        <v>0.06344008810204746</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03061299265412964</v>
+        <v>0.02306141047249156</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>978288807.5071757</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1879182289.65433</v>
+        <v>1535564572.368516</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1688146116838464</v>
+        <v>0.1887284369034952</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04706534370868216</v>
+        <v>0.05461788165443945</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>939591123.5116171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4781576202.187611</v>
+        <v>4524712973.830655</v>
       </c>
       <c r="F46" t="n">
-        <v>0.12506148711823</v>
+        <v>0.1324478872978563</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05392386168020183</v>
+        <v>0.05390266562669684</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>50</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2390788115.362368</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3489084233.615279</v>
+        <v>4109853852.740833</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1916021734807304</v>
+        <v>0.1585315410143636</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04983889724609809</v>
+        <v>0.04730517456772607</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>37</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1744542086.944047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4073123671.949392</v>
+        <v>3162270522.909783</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07302187438591427</v>
+        <v>0.1063101922747458</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03220053721460349</v>
+        <v>0.03567555376850298</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2036561866.032946</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1247024013.221292</v>
+        <v>1700035471.659534</v>
       </c>
       <c r="F49" t="n">
-        <v>0.137392655248037</v>
+        <v>0.1496955492908808</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04256397765842619</v>
+        <v>0.04229152220853765</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>623512077.910707</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3482152614.891421</v>
+        <v>4145033709.650614</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1117285012144867</v>
+        <v>0.1393553065509383</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04755529622705366</v>
+        <v>0.04418395621840057</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>48</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1741076332.927176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1486904894.441021</v>
+        <v>1233814783.986804</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1386215561461524</v>
+        <v>0.1654587918892157</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0477996485519485</v>
+        <v>0.04548313848710938</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>743452452.2462691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3750106796.42188</v>
+        <v>4997609496.455285</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08853020236591919</v>
+        <v>0.1308333954889183</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05348542965979729</v>
+        <v>0.03995149341726085</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>58</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1875053469.358106</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3537927086.922908</v>
+        <v>2886838238.873485</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2028635989267256</v>
+        <v>0.1874745186197166</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0311334029972362</v>
+        <v>0.02250637370242739</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>40</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1768963538.684478</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4851621239.342802</v>
+        <v>4372764865.165956</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1356146228793016</v>
+        <v>0.1565069041872678</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03699109043015969</v>
+        <v>0.05150390338418971</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>47</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2425810750.582181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3404194419.204668</v>
+        <v>4243701691.923614</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1356657122386694</v>
+        <v>0.1827309647527796</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0277113648312494</v>
+        <v>0.02471726567467888</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1702097158.161946</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1800848959.300582</v>
+        <v>1292282600.329032</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1101865780703827</v>
+        <v>0.1535439631998996</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05389894825789405</v>
+        <v>0.04863416050637238</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>900424477.287385</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3567336395.84798</v>
+        <v>4001848468.480918</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1410498967607637</v>
+        <v>0.1197395229351449</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02315546179332819</v>
+        <v>0.02649564531200203</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>45</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1783668249.922097</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1879435973.445354</v>
+        <v>1508407459.005769</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1849115930973122</v>
+        <v>0.142322397795791</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03844254544350876</v>
+        <v>0.02435035871560164</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>939717983.2006212</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4374100116.202234</v>
+        <v>5198260707.861609</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08696378358124407</v>
+        <v>0.1187612624693176</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03448539400414531</v>
+        <v>0.03941345053905606</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2187050015.940609</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3633085399.410376</v>
+        <v>2395289352.831873</v>
       </c>
       <c r="F60" t="n">
-        <v>0.139266912498404</v>
+        <v>0.1473339640396769</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02597875152493124</v>
+        <v>0.02104761806196669</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1816542836.408267</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2361730994.595595</v>
+        <v>2660020686.017529</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1345734589548874</v>
+        <v>0.1086317339863364</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02054020525749532</v>
+        <v>0.02758732810457061</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>48</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1180865537.914105</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1959009915.733397</v>
+        <v>1323289280.001682</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1638642424572474</v>
+        <v>0.1661096569548305</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0357645376093019</v>
+        <v>0.03840375350440071</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>979505009.7712127</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4274603861.791116</v>
+        <v>3705275857.875907</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08601943568016154</v>
+        <v>0.08880645252107611</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04656250941596137</v>
+        <v>0.03335861334046273</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>40</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2137301980.971969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3779022654.465075</v>
+        <v>5019347780.563574</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1574962518751795</v>
+        <v>0.1357006040782419</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03383964339590361</v>
+        <v>0.03343083130152727</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>43</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1889511347.495256</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5211445059.606112</v>
+        <v>4140151670.442528</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1222876044371067</v>
+        <v>0.149082627717322</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02923060511869453</v>
+        <v>0.03130869473895906</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>50</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2605722476.059354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3585786984.826421</v>
+        <v>4161752922.200843</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1237630933922404</v>
+        <v>0.1217117198584055</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04106397705707707</v>
+        <v>0.03876892333025656</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>41</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1792893443.791572</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3390138240.512253</v>
+        <v>3458838683.770607</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09688176920592373</v>
+        <v>0.07124522333052746</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03278021781513278</v>
+        <v>0.04255112273215879</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>45</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1695069105.420847</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5738810550.681405</v>
+        <v>3715611656.90521</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1413671209173393</v>
+        <v>0.1170228604703858</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04405291409052763</v>
+        <v>0.04145361876565599</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>44</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2869405376.44497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2122643204.570414</v>
+        <v>1802865585.418841</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1300584556960412</v>
+        <v>0.1517292527679283</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04872586162470238</v>
+        <v>0.03655858703736792</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1061321623.079708</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3222545936.781134</v>
+        <v>2568428682.950941</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09207434084955843</v>
+        <v>0.07299000044458767</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04823261398093553</v>
+        <v>0.04367314812008505</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>40</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1611272959.876542</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4014230430.552634</v>
+        <v>5335777389.94661</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1707817383091224</v>
+        <v>0.161455622714678</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02902545006539775</v>
+        <v>0.02281025568695852</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>51</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2007115247.344585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2210889812.119273</v>
+        <v>1476248839.850942</v>
       </c>
       <c r="F72" t="n">
-        <v>0.105608608191765</v>
+        <v>0.07381123608448673</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04441226593820931</v>
+        <v>0.03910083942814357</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1105444818.346284</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2638122367.159011</v>
+        <v>3324800112.247501</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1117743454922969</v>
+        <v>0.1081103414581376</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03831033668425963</v>
+        <v>0.04424875785643183</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>53</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1319061212.663563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3157970673.341984</v>
+        <v>3095899634.308007</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1389830333469311</v>
+        <v>0.1290156013880722</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03236087926673432</v>
+        <v>0.02414127769092102</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>48</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1578985388.3919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1969438111.603128</v>
+        <v>2339175309.274817</v>
       </c>
       <c r="F75" t="n">
-        <v>0.144487319243331</v>
+        <v>0.1052828016421256</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03239286042423126</v>
+        <v>0.02689824592998294</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>984719022.8629808</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3495861207.859803</v>
+        <v>4994877383.481608</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08110479399207457</v>
+        <v>0.1157328137333696</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03349734199178475</v>
+        <v>0.022631155784385</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>31</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1747930567.427505</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1574414686.617936</v>
+        <v>2083944519.560933</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1143771037493695</v>
+        <v>0.1809186092685266</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02348145311337972</v>
+        <v>0.03135019745302351</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>787207341.9414818</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3268120984.844818</v>
+        <v>3786527052.330676</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1033470031422539</v>
+        <v>0.1343488478826165</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04860475316428458</v>
+        <v>0.04039375286062719</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>49</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1634060510.485731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1359957157.996513</v>
+        <v>1729324053.885774</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1772145284586649</v>
+        <v>0.1494110333529402</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0330992065063406</v>
+        <v>0.03089232936723782</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>679978588.6413915</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5470664480.133147</v>
+        <v>4776769095.033345</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07506622576318281</v>
+        <v>0.07373796973793156</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03660105821079875</v>
+        <v>0.02675475745264524</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>29</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2735332312.624728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4828716774.234832</v>
+        <v>4943931161.058644</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1139974150203453</v>
+        <v>0.1258658092000921</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02598536066377335</v>
+        <v>0.03177148621899503</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>32</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2414358381.081825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4474020195.808738</v>
+        <v>4278556636.896775</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1504982452603849</v>
+        <v>0.185218865486771</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02736218676602211</v>
+        <v>0.02011868925413988</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>53</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2237010111.131039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2445618953.773917</v>
+        <v>1509915714.401011</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1465673833146633</v>
+        <v>0.1447123061392252</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04461717702665971</v>
+        <v>0.0398154330936847</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1222809517.644688</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2464689053.810616</v>
+        <v>2429730904.454421</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0779635308557796</v>
+        <v>0.0812876977376836</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03848270439574854</v>
+        <v>0.04577608179635117</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1232344463.818122</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2855447698.715228</v>
+        <v>3396733889.095031</v>
       </c>
       <c r="F85" t="n">
-        <v>0.168535624164017</v>
+        <v>0.1691239025277469</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04280910773083383</v>
+        <v>0.03546139080627274</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>53</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1427723893.502301</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2442491345.265717</v>
+        <v>2387397798.665194</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1094600304035349</v>
+        <v>0.1689963000636223</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02490700541506772</v>
+        <v>0.02217732522197723</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1221245761.756394</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1214102991.269358</v>
+        <v>1076485169.544749</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1380441907865641</v>
+        <v>0.1809132565767246</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04320781512762385</v>
+        <v>0.04257898652920233</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>607051554.8031259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2683427588.203231</v>
+        <v>2868563145.753359</v>
       </c>
       <c r="F88" t="n">
-        <v>0.144174101953716</v>
+        <v>0.1666283607457372</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03473528579678518</v>
+        <v>0.0312167884062743</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>56</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1341713793.21865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3428837206.362636</v>
+        <v>2791989431.957969</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1047755778059011</v>
+        <v>0.1066662308843171</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03630268285972531</v>
+        <v>0.03771318176300462</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>48</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1714418609.81891</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1360551178.026057</v>
+        <v>1586061918.922576</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1107738316497023</v>
+        <v>0.1130142001851101</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04434364528260969</v>
+        <v>0.04000708005120959</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>680275542.1503057</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1378394900.642357</v>
+        <v>1286104161.374369</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1569907050050723</v>
+        <v>0.1638417979008031</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04504593750468963</v>
+        <v>0.05810992493641731</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>689197505.3963712</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2551649777.324215</v>
+        <v>1919340531.896915</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07633267212382419</v>
+        <v>0.09603496410776728</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04690762739475694</v>
+        <v>0.04157261591245344</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>32</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1275824876.475305</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3500786733.175803</v>
+        <v>3942736067.415572</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1256727711022363</v>
+        <v>0.09040332107242204</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04379841507219974</v>
+        <v>0.04735661092036032</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>43</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1750393399.453311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2111462771.550464</v>
+        <v>1719736705.352772</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1622978177595356</v>
+        <v>0.1433254370179168</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0333755955524347</v>
+        <v>0.04192054148771067</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1055731398.601784</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2767996500.798648</v>
+        <v>2432789214.843431</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1247689797752523</v>
+        <v>0.1277153311538835</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04709419048870549</v>
+        <v>0.04669017503157707</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>33</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1383998266.95017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1830890780.738213</v>
+        <v>2065891019.139413</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1115944839666216</v>
+        <v>0.1016321139097191</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04275383359732957</v>
+        <v>0.03147225287142109</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>915445395.3596542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3939628201.134663</v>
+        <v>5136522017.591146</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1741270375220513</v>
+        <v>0.1473843083204258</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01851549106241706</v>
+        <v>0.02226814068817633</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>47</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1969814152.048898</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3185591476.218935</v>
+        <v>3842027461.661003</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09112568595727873</v>
+        <v>0.08150784464298107</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02293973081791002</v>
+        <v>0.02383863785263072</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>37</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1592795735.343314</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3322109567.460848</v>
+        <v>3322837288.623379</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1480432097004686</v>
+        <v>0.121030309604698</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03120647989255453</v>
+        <v>0.02758504074633062</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>44</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1661054792.987644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3072294929.018305</v>
+        <v>3111825187.554464</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1690621167622782</v>
+        <v>0.1297381600963554</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01853795510388872</v>
+        <v>0.02390538998688645</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>42</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1536147461.091193</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2779411258.61513</v>
+        <v>2386786410.333909</v>
       </c>
       <c r="F101" t="n">
-        <v>0.200846989631111</v>
+        <v>0.1735991390195619</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03733697466282277</v>
+        <v>0.05442534658294802</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>57</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1389705689.208113</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_140.xlsx
+++ b/output/fit_clients/fit_round_140.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1597330844.617339</v>
+        <v>1967186568.170462</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0955130472096733</v>
+        <v>0.1080825537415254</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04434685886690111</v>
+        <v>0.03131484076124599</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1883944952.577624</v>
+        <v>2317720900.967667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1846746360645843</v>
+        <v>0.1127424592349275</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04035086117474092</v>
+        <v>0.03911094424994817</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4711914899.338697</v>
+        <v>4581999185.916026</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1488505997731962</v>
+        <v>0.1355557078968206</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0361920252602133</v>
+        <v>0.02421443884163263</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3551138254.644003</v>
+        <v>4022810750.131538</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09978920542044871</v>
+        <v>0.09426260784907249</v>
       </c>
       <c r="G5" t="n">
-        <v>0.049255515000154</v>
+        <v>0.03136270789859318</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2275778814.01479</v>
+        <v>1895767810.476562</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1323760790796457</v>
+        <v>0.08987090577479438</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05089892977019794</v>
+        <v>0.05006030459595958</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2867260433.052154</v>
+        <v>2617809335.407734</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09921416525556283</v>
+        <v>0.07132416310882278</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04180556265535444</v>
+        <v>0.03830953013130897</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3333829274.003168</v>
+        <v>3491368865.753628</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1620614102566228</v>
+        <v>0.211984442700623</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03247201967899722</v>
+        <v>0.02608648822862595</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2210660175.357935</v>
+        <v>1758255688.317112</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1823762284431263</v>
+        <v>0.1579938911899037</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03726180262726743</v>
+        <v>0.02922765298340491</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4360784406.539813</v>
+        <v>4153552134.506821</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1415665301664616</v>
+        <v>0.1812343564349746</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03385485711809789</v>
+        <v>0.04035003991605132</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3988621006.966787</v>
+        <v>4245103679.774718</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1598528877926663</v>
+        <v>0.1715394924185733</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0471989656201041</v>
+        <v>0.04746345905956805</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2736719649.666085</v>
+        <v>2571820432.271556</v>
       </c>
       <c r="F12" t="n">
-        <v>0.167502002974202</v>
+        <v>0.1407453744777292</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04440094618057045</v>
+        <v>0.03509584521775625</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4668118866.161269</v>
+        <v>3296978213.651593</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08819710693080196</v>
+        <v>0.07268174132146556</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02415884756002672</v>
+        <v>0.02439756905732048</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3786918689.135674</v>
+        <v>3006202461.043678</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1406585956892837</v>
+        <v>0.1435344428383467</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02773196748327311</v>
+        <v>0.03695802560220623</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1275783421.507768</v>
+        <v>1599610085.602001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0894559742702065</v>
+        <v>0.1023841618043125</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03996982939620511</v>
+        <v>0.03535205398653946</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2827001913.425376</v>
+        <v>1980356858.326533</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1029282428382058</v>
+        <v>0.09251220567882594</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04546277488234883</v>
+        <v>0.04579526083230366</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3879680306.295848</v>
+        <v>5026350209.393051</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1602107249810023</v>
+        <v>0.1637840457881946</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0530036022882133</v>
+        <v>0.03687237770527639</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2858531006.280486</v>
+        <v>2516369774.759612</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1679747293265595</v>
+        <v>0.1259047645884318</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02608255836100229</v>
+        <v>0.03187978215604401</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1098489409.231669</v>
+        <v>1034687584.102609</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1533875903498757</v>
+        <v>0.1500099101580987</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01953149721826559</v>
+        <v>0.0176180836091725</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1805943794.418465</v>
+        <v>2569332689.741404</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1116279807525396</v>
+        <v>0.13426893426999</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02284685065331489</v>
+        <v>0.02339165711688588</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2485730608.60066</v>
+        <v>2703029591.974396</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07433899303588021</v>
+        <v>0.09661740511896355</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03291330005609699</v>
+        <v>0.04039961528990063</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3955103499.313329</v>
+        <v>3887324863.121051</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08967834704360979</v>
+        <v>0.1129056299164591</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05258250233266492</v>
+        <v>0.04968225840942114</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1247223485.836511</v>
+        <v>1244835302.296207</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1601211634273204</v>
+        <v>0.1409930404405114</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03632031797435405</v>
+        <v>0.03778951736064799</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2628098951.97594</v>
+        <v>3966266000.908632</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1015094972860932</v>
+        <v>0.1416855110600894</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03218704659375658</v>
+        <v>0.02593199543122689</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1000286502.42525</v>
+        <v>1128177404.428946</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1217242376568938</v>
+        <v>0.09649058514879653</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02597154512809</v>
+        <v>0.0255299727243498</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1436042210.372756</v>
+        <v>927058839.5674976</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1019189782950682</v>
+        <v>0.08164340815029733</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02669037917993503</v>
+        <v>0.02849523387770045</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3309733741.286744</v>
+        <v>4620927856.961032</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1161958361542386</v>
+        <v>0.1418517818025312</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01639269057051371</v>
+        <v>0.02453220050747714</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2786873829.701355</v>
+        <v>2369681736.56637</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1014161895245029</v>
+        <v>0.1061557855538212</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04773717305532389</v>
+        <v>0.03720255300824867</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4947262437.145318</v>
+        <v>5708551700.19381</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1195281323068627</v>
+        <v>0.09712336328234621</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03282980352144805</v>
+        <v>0.03704663797426043</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1453550253.361229</v>
+        <v>1836572449.878515</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1365449511671024</v>
+        <v>0.1111956492300039</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03287050924129789</v>
+        <v>0.02889142655287678</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>953526486.2332444</v>
+        <v>1089225033.916205</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07483369714608475</v>
+        <v>0.0989048372277026</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04364354717079325</v>
+        <v>0.04320203542006053</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1328697182.60202</v>
+        <v>1154761783.368167</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1135351641510667</v>
+        <v>0.08748184856663231</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02762345837650114</v>
+        <v>0.03856973159750865</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2909670888.649004</v>
+        <v>2125394654.728407</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1545683868793058</v>
+        <v>0.1626930544170007</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05611936320172604</v>
+        <v>0.04782051274135487</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1165718874.059299</v>
+        <v>1551948336.885222</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09172606421940172</v>
+        <v>0.1205630033268332</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02449652019054541</v>
+        <v>0.02485967621266964</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>841704014.0880324</v>
+        <v>1224240286.809592</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08153316397904141</v>
+        <v>0.08574692860736485</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0329905719952499</v>
+        <v>0.04311167325422691</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3005513197.272066</v>
+        <v>2959501302.847187</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1266863734635853</v>
+        <v>0.118443119167908</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0205557111128717</v>
+        <v>0.02339267276949261</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2160728408.621774</v>
+        <v>2929050556.770046</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07768537044819723</v>
+        <v>0.1086515972329872</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03926389527145475</v>
+        <v>0.03708000208642139</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1799174761.646608</v>
+        <v>1811424880.07396</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07898248149684357</v>
+        <v>0.1189422177576729</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03841545955776062</v>
+        <v>0.03490652219025983</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2014584775.952074</v>
+        <v>1746160359.437901</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1893145486218399</v>
+        <v>0.1575341054415433</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02073377627318118</v>
+        <v>0.02197618265108228</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1763315468.025537</v>
+        <v>1445616880.787506</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1111381115483555</v>
+        <v>0.1006390750435441</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05478029731110512</v>
+        <v>0.0545142770727326</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2144182493.348475</v>
+        <v>2024958618.833066</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1406416945444495</v>
+        <v>0.1565189605970072</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04415249090194932</v>
+        <v>0.04615642708442769</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3908809142.102979</v>
+        <v>3351438631.443561</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1257383187558061</v>
+        <v>0.1215803769531363</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04473112312879238</v>
+        <v>0.04202627889764685</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2726554911.36423</v>
+        <v>2477049494.195784</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1840013844740568</v>
+        <v>0.1901537386899682</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02119642495744808</v>
+        <v>0.01994869810149391</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1647748009.982149</v>
+        <v>1718300153.245443</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06344008810204746</v>
+        <v>0.08469922542873905</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02306141047249156</v>
+        <v>0.02671245726616011</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1535564572.368516</v>
+        <v>2187391048.670834</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1887284369034952</v>
+        <v>0.157679986682431</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05461788165443945</v>
+        <v>0.04364022442073189</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4524712973.830655</v>
+        <v>4047712676.623362</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1324478872978563</v>
+        <v>0.118283745941161</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05390266562669684</v>
+        <v>0.05636538515617289</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4109853852.740833</v>
+        <v>5193330268.503676</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1585315410143636</v>
+        <v>0.1477427760767029</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04730517456772607</v>
+        <v>0.04459508129267281</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3162270522.909783</v>
+        <v>3285839312.348618</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1063101922747458</v>
+        <v>0.0896319028727299</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03567555376850298</v>
+        <v>0.02841076142133628</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1700035471.659534</v>
+        <v>1609438819.930766</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1496955492908808</v>
+        <v>0.1574212796022384</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04229152220853765</v>
+        <v>0.03449730695242053</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4145033709.650614</v>
+        <v>3443329905.736382</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1393553065509383</v>
+        <v>0.1333269913710325</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04418395621840057</v>
+        <v>0.05257298452034905</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1233814783.986804</v>
+        <v>974919213.4539274</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1654587918892157</v>
+        <v>0.1688857242745754</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04548313848710938</v>
+        <v>0.03966194209335195</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4997609496.455285</v>
+        <v>3276182898.958888</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1308333954889183</v>
+        <v>0.0838654581200456</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03995149341726085</v>
+        <v>0.05510010385093395</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2886838238.873485</v>
+        <v>2456970179.454074</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1874745186197166</v>
+        <v>0.1303561331124583</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02250637370242739</v>
+        <v>0.03500479683116549</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4372764865.165956</v>
+        <v>4521712016.960209</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1565069041872678</v>
+        <v>0.1304372264097794</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05150390338418971</v>
+        <v>0.04817284468929593</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4243701691.923614</v>
+        <v>4224699241.276307</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1827309647527796</v>
+        <v>0.2109817140476427</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02471726567467888</v>
+        <v>0.02213680086590618</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1292282600.329032</v>
+        <v>1562207934.64663</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1535439631998996</v>
+        <v>0.1587119513701206</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04863416050637238</v>
+        <v>0.05446942673590991</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4001848468.480918</v>
+        <v>3393403942.160646</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1197395229351449</v>
+        <v>0.1426255303130565</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02649564531200203</v>
+        <v>0.02088502222618298</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1508407459.005769</v>
+        <v>1697860527.388419</v>
       </c>
       <c r="F58" t="n">
-        <v>0.142322397795791</v>
+        <v>0.1497616546757277</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02435035871560164</v>
+        <v>0.02551962206688179</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5198260707.861609</v>
+        <v>3690913378.481228</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1187612624693176</v>
+        <v>0.1276565776521311</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03941345053905606</v>
+        <v>0.04620464096017603</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2395289352.831873</v>
+        <v>3031186634.375116</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1473339640396769</v>
+        <v>0.1373909784968236</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02104761806196669</v>
+        <v>0.02394115221528439</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2660020686.017529</v>
+        <v>2413623523.580118</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1086317339863364</v>
+        <v>0.1712239696120402</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02758732810457061</v>
+        <v>0.02198009797202523</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1323289280.001682</v>
+        <v>1894148615.248912</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1661096569548305</v>
+        <v>0.1816765831829006</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03840375350440071</v>
+        <v>0.04006901070460776</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3705275857.875907</v>
+        <v>4084586780.645885</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08880645252107611</v>
+        <v>0.08396652077793855</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03335861334046273</v>
+        <v>0.04536261733432183</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5019347780.563574</v>
+        <v>5232014647.769719</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1357006040782419</v>
+        <v>0.1446382804394502</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03343083130152727</v>
+        <v>0.03057677735991993</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4140151670.442528</v>
+        <v>4836646080.419448</v>
       </c>
       <c r="F65" t="n">
-        <v>0.149082627717322</v>
+        <v>0.1662453598918149</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03130869473895906</v>
+        <v>0.02183971337401602</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4161752922.200843</v>
+        <v>3539815948.124771</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1217117198584055</v>
+        <v>0.1419819604045794</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03876892333025656</v>
+        <v>0.03453524086815064</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3458838683.770607</v>
+        <v>3383792741.527158</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07124522333052746</v>
+        <v>0.08915698587775724</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04255112273215879</v>
+        <v>0.03203661850182876</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3715611656.90521</v>
+        <v>5032059172.036217</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1170228604703858</v>
+        <v>0.143630026700745</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04145361876565599</v>
+        <v>0.03769641042756838</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1802865585.418841</v>
+        <v>2160221940.662203</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1517292527679283</v>
+        <v>0.1507370975280041</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03655858703736792</v>
+        <v>0.03676734627733986</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2568428682.950941</v>
+        <v>3474888106.415524</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07299000044458767</v>
+        <v>0.09799630023186644</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04367314812008505</v>
+        <v>0.04843319772294471</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5335777389.94661</v>
+        <v>3692449011.635375</v>
       </c>
       <c r="F71" t="n">
-        <v>0.161455622714678</v>
+        <v>0.1359965804677815</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02281025568695852</v>
+        <v>0.03298522724851845</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1476248839.850942</v>
+        <v>1697832693.147398</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07381123608448673</v>
+        <v>0.07742866491886027</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03910083942814357</v>
+        <v>0.03818508351665005</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3324800112.247501</v>
+        <v>3462354859.547281</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1081103414581376</v>
+        <v>0.1043631631450584</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04424875785643183</v>
+        <v>0.05003099372664657</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3095899634.308007</v>
+        <v>2551121704.283655</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1290156013880722</v>
+        <v>0.1330119762370344</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02414127769092102</v>
+        <v>0.03106409864670487</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2339175309.274817</v>
+        <v>1524929765.653234</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1052828016421256</v>
+        <v>0.1204229962316052</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02689824592998294</v>
+        <v>0.02951088858193654</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4994877383.481608</v>
+        <v>3440534287.301031</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1157328137333696</v>
+        <v>0.1049854244755901</v>
       </c>
       <c r="G76" t="n">
-        <v>0.022631155784385</v>
+        <v>0.03016695299250279</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2083944519.560933</v>
+        <v>1601516483.24668</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1809186092685266</v>
+        <v>0.1537225807521539</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03135019745302351</v>
+        <v>0.02073356721434448</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3786527052.330676</v>
+        <v>3977640583.824901</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1343488478826165</v>
+        <v>0.09012722331782379</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04039375286062719</v>
+        <v>0.04861024634176922</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1729324053.885774</v>
+        <v>1235546188.580964</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1494110333529402</v>
+        <v>0.1520793818850417</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03089232936723782</v>
+        <v>0.02938337343629356</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4776769095.033345</v>
+        <v>4753820040.461439</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07373796973793156</v>
+        <v>0.1106384133826629</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02675475745264524</v>
+        <v>0.0387447392746325</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4943931161.058644</v>
+        <v>5015910523.026982</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1258658092000921</v>
+        <v>0.1311638186471292</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03177148621899503</v>
+        <v>0.03290689533376395</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4278556636.896775</v>
+        <v>5454403275.543078</v>
       </c>
       <c r="F82" t="n">
-        <v>0.185218865486771</v>
+        <v>0.1581115986496984</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02011868925413988</v>
+        <v>0.01812091142776058</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1509915714.401011</v>
+        <v>1516761719.813959</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1447123061392252</v>
+        <v>0.1118708010908303</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0398154330936847</v>
+        <v>0.03711222018862779</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2429730904.454421</v>
+        <v>1605757954.277552</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0812876977376836</v>
+        <v>0.09119936170452743</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04577608179635117</v>
+        <v>0.0456539056040083</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3396733889.095031</v>
+        <v>2218163656.27983</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1691239025277469</v>
+        <v>0.1447528852946758</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03546139080627274</v>
+        <v>0.05418962711287188</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2387397798.665194</v>
+        <v>2671234270.978051</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1689963000636223</v>
+        <v>0.135304203513425</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02217732522197723</v>
+        <v>0.02154553284490274</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1076485169.544749</v>
+        <v>1258492234.764284</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1809132565767246</v>
+        <v>0.1656044531400455</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04257898652920233</v>
+        <v>0.04445881391958729</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2868563145.753359</v>
+        <v>3345312051.656713</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1666283607457372</v>
+        <v>0.1713567151382246</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0312167884062743</v>
+        <v>0.02767180349508671</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2791989431.957969</v>
+        <v>2284042593.817102</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1066662308843171</v>
+        <v>0.1240277982254764</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03771318176300462</v>
+        <v>0.03482470987366802</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1586061918.922576</v>
+        <v>1871251634.770686</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1130142001851101</v>
+        <v>0.131401793595027</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04000708005120959</v>
+        <v>0.0392537903068062</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1286104161.374369</v>
+        <v>1721368037.641738</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1638417979008031</v>
+        <v>0.1816159612282083</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05810992493641731</v>
+        <v>0.04351517156560927</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1919340531.896915</v>
+        <v>2599517107.879269</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09603496410776728</v>
+        <v>0.1014191691216291</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04157261591245344</v>
+        <v>0.03052069583161969</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3942736067.415572</v>
+        <v>3512767795.074089</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09040332107242204</v>
+        <v>0.1009280387206483</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04735661092036032</v>
+        <v>0.03595287697622923</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1719736705.352772</v>
+        <v>1735655918.84498</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1433254370179168</v>
+        <v>0.1341427152488615</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04192054148771067</v>
+        <v>0.04257228801232988</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2432789214.843431</v>
+        <v>3001820697.765208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1277153311538835</v>
+        <v>0.09020245973608466</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04669017503157707</v>
+        <v>0.05237857544877869</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2065891019.139413</v>
+        <v>1982612126.044757</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1016321139097191</v>
+        <v>0.1353773850152715</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03147225287142109</v>
+        <v>0.03509061725269987</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5136522017.591146</v>
+        <v>3446815059.282883</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1473843083204258</v>
+        <v>0.1682286778980414</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02226814068817633</v>
+        <v>0.02908033569188236</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3842027461.661003</v>
+        <v>3828906847.908945</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08150784464298107</v>
+        <v>0.08893626473190801</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02383863785263072</v>
+        <v>0.02640211281413355</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3322837288.623379</v>
+        <v>2728957335.151245</v>
       </c>
       <c r="F99" t="n">
-        <v>0.121030309604698</v>
+        <v>0.09978184929099873</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02758504074633062</v>
+        <v>0.03110246757667975</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3111825187.554464</v>
+        <v>4147032391.319889</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1297381600963554</v>
+        <v>0.1732074634861846</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02390538998688645</v>
+        <v>0.02588167533519311</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2386786410.333909</v>
+        <v>3040004572.795445</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1735991390195619</v>
+        <v>0.210576379151275</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05442534658294802</v>
+        <v>0.0551829469289649</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_140.xlsx
+++ b/output/fit_clients/fit_round_140.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1967186568.170462</v>
+        <v>2242769071.050923</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1080825537415254</v>
+        <v>0.08819101845918811</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03131484076124599</v>
+        <v>0.02989751613352674</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2317720900.967667</v>
+        <v>2584359026.920446</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1127424592349275</v>
+        <v>0.1563064854977724</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03911094424994817</v>
+        <v>0.04727898117808262</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4581999185.916026</v>
+        <v>4959162223.991913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1355557078968206</v>
+        <v>0.1070045086255319</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02421443884163263</v>
+        <v>0.03258884486436737</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>80</v>
+      </c>
+      <c r="J4" t="n">
+        <v>140</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4022810750.131538</v>
+        <v>3915537754.362675</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09426260784907249</v>
+        <v>0.0869673973748248</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03136270789859318</v>
+        <v>0.04494744268838091</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>58</v>
+      </c>
+      <c r="J5" t="n">
+        <v>140</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1895767810.476562</v>
+        <v>1847937928.40815</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08987090577479438</v>
+        <v>0.1043445396262944</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05006030459595958</v>
+        <v>0.03597701403192892</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2617809335.407734</v>
+        <v>2837827850.433862</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07132416310882278</v>
+        <v>0.08684786460179758</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03830953013130897</v>
+        <v>0.03506646471832515</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3491368865.753628</v>
+        <v>3166326808.814096</v>
       </c>
       <c r="F8" t="n">
-        <v>0.211984442700623</v>
+        <v>0.171656082625564</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02608648822862595</v>
+        <v>0.02951128098806366</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>136</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1758255688.317112</v>
+        <v>1822219977.298923</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1579938911899037</v>
+        <v>0.1594070573127783</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02922765298340491</v>
+        <v>0.02739159860252024</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4153552134.506821</v>
+        <v>4829257517.960867</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1812343564349746</v>
+        <v>0.1377936264930068</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04035003991605132</v>
+        <v>0.04937872066036033</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>128</v>
+      </c>
+      <c r="J10" t="n">
+        <v>140</v>
+      </c>
+      <c r="K10" t="n">
+        <v>157.4333201743466</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4245103679.774718</v>
+        <v>3643041062.584233</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1715394924185733</v>
+        <v>0.1591820708562244</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04746345905956805</v>
+        <v>0.03294611890527111</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>61</v>
+      </c>
+      <c r="J11" t="n">
+        <v>139</v>
+      </c>
+      <c r="K11" t="n">
+        <v>141.1874881469955</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2571820432.271556</v>
+        <v>2641629284.926424</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1407453744777292</v>
+        <v>0.1454186009805191</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03509584521775625</v>
+        <v>0.0523416257566104</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3296978213.651593</v>
+        <v>4534103200.64035</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07268174132146556</v>
+        <v>0.06564771801103104</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02439756905732048</v>
+        <v>0.02748301888214023</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>68</v>
+      </c>
+      <c r="J13" t="n">
+        <v>140</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3006202461.043678</v>
+        <v>3836276918.105349</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1435344428383467</v>
+        <v>0.1525134077565823</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03695802560220623</v>
+        <v>0.0439318367409592</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>139</v>
+      </c>
+      <c r="K14" t="n">
+        <v>138.490977798179</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1599610085.602001</v>
+        <v>1453284493.075649</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1023841618043125</v>
+        <v>0.08524526484453965</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03535205398653946</v>
+        <v>0.04130097378724534</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1980356858.326533</v>
+        <v>2858723406.683644</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09251220567882594</v>
+        <v>0.08538835278806518</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04579526083230366</v>
+        <v>0.05009195807038015</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5026350209.393051</v>
+        <v>3685101496.53335</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1637840457881946</v>
+        <v>0.1307648899005211</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03687237770527639</v>
+        <v>0.04529347208538249</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>67</v>
+      </c>
+      <c r="J17" t="n">
+        <v>140</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2516369774.759612</v>
+        <v>2582346648.002682</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1259047645884318</v>
+        <v>0.1248149220467898</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03187978215604401</v>
+        <v>0.02110807594235469</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>36</v>
+      </c>
+      <c r="J18" t="n">
+        <v>135</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1034687584.102609</v>
+        <v>1237140808.423903</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1500099101580987</v>
+        <v>0.1515144491949177</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0176180836091725</v>
+        <v>0.02107743766684065</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2569332689.741404</v>
+        <v>2212374216.434107</v>
       </c>
       <c r="F20" t="n">
-        <v>0.13426893426999</v>
+        <v>0.134718454905655</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02339165711688588</v>
+        <v>0.02789923445988652</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2703029591.974396</v>
+        <v>2661872030.111131</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09661740511896355</v>
+        <v>0.09232058903981641</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04039961528990063</v>
+        <v>0.03528983784215092</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3887324863.121051</v>
+        <v>2541811989.704489</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1129056299164591</v>
+        <v>0.09970494284641229</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04968225840942114</v>
+        <v>0.04498439451205503</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>36</v>
+      </c>
+      <c r="J22" t="n">
+        <v>137</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1244835302.296207</v>
+        <v>1346374497.893954</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1409930404405114</v>
+        <v>0.1484837416404436</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03778951736064799</v>
+        <v>0.04082433582892131</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3966266000.908632</v>
+        <v>2851564171.91684</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1416855110600894</v>
+        <v>0.133579403972859</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02593199543122689</v>
+        <v>0.03518230916156749</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>41</v>
+      </c>
+      <c r="J24" t="n">
+        <v>138</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1128177404.428946</v>
+        <v>1240953496.869753</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09649058514879653</v>
+        <v>0.07498815803182952</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0255299727243498</v>
+        <v>0.02995482715089863</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>927058839.5674976</v>
+        <v>976339522.5417544</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08164340815029733</v>
+        <v>0.1153642489524084</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02849523387770045</v>
+        <v>0.03653717589443183</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4620927856.961032</v>
+        <v>3361795979.775229</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1418517818025312</v>
+        <v>0.1130929160563559</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02453220050747714</v>
+        <v>0.02318452607710579</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>55</v>
+      </c>
+      <c r="J27" t="n">
+        <v>139</v>
+      </c>
+      <c r="K27" t="n">
+        <v>94.34922064250746</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2369681736.56637</v>
+        <v>3632015687.390202</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1061557855538212</v>
+        <v>0.1189338605705346</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03720255300824867</v>
+        <v>0.04774184944852219</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5708551700.19381</v>
+        <v>5293224444.225566</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09712336328234621</v>
+        <v>0.1335396634785647</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03704663797426043</v>
+        <v>0.04042540507075073</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>129</v>
+      </c>
+      <c r="J29" t="n">
+        <v>140</v>
+      </c>
+      <c r="K29" t="n">
+        <v>168.0712699949327</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1836572449.878515</v>
+        <v>2056781621.067741</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1111956492300039</v>
+        <v>0.1144960821618548</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02889142655287678</v>
+        <v>0.03098123504644726</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1089225033.916205</v>
+        <v>1161577638.98885</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0989048372277026</v>
+        <v>0.1070706138746583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04320203542006053</v>
+        <v>0.03186320363335254</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1154761783.368167</v>
+        <v>1268976951.548521</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08748184856663231</v>
+        <v>0.1022758508257142</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03856973159750865</v>
+        <v>0.02666041323811989</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2125394654.728407</v>
+        <v>2627345455.736743</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1626930544170007</v>
+        <v>0.1621520610102124</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04782051274135487</v>
+        <v>0.04495508264748402</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1551948336.885222</v>
+        <v>1454453165.337411</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1205630033268332</v>
+        <v>0.1090395307979736</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02485967621266964</v>
+        <v>0.02389201577421752</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1224240286.809592</v>
+        <v>858614006.2779015</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08574692860736485</v>
+        <v>0.08090801571016784</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04311167325422691</v>
+        <v>0.02729591362184944</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2959501302.847187</v>
+        <v>2655286059.589178</v>
       </c>
       <c r="F36" t="n">
-        <v>0.118443119167908</v>
+        <v>0.1411811392545251</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02339267276949261</v>
+        <v>0.01913239705842058</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2929050556.770046</v>
+        <v>1853994713.955657</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1086515972329872</v>
+        <v>0.09713311983335587</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03708000208642139</v>
+        <v>0.03608743797522367</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1811424880.07396</v>
+        <v>1723615338.542224</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1189422177576729</v>
+        <v>0.08201071462834252</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03490652219025983</v>
+        <v>0.02847333811383641</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1746160359.437901</v>
+        <v>1661359001.352924</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1575341054415433</v>
+        <v>0.1722949211643197</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02197618265108228</v>
+        <v>0.0268581723064095</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1445616880.787506</v>
+        <v>1473024144.292567</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1006390750435441</v>
+        <v>0.1204924049628534</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0545142770727326</v>
+        <v>0.04315346605739678</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2024958618.833066</v>
+        <v>2416875955.148788</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1565189605970072</v>
+        <v>0.1035449759036878</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04615642708442769</v>
+        <v>0.03471365795825324</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3351438631.443561</v>
+        <v>4132590189.723298</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1215803769531363</v>
+        <v>0.1146412615164098</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04202627889764685</v>
+        <v>0.0314228609897526</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>51</v>
+      </c>
+      <c r="J42" t="n">
+        <v>140</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2477049494.195784</v>
+        <v>2759381568.717661</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1901537386899682</v>
+        <v>0.1463062908356597</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01994869810149391</v>
+        <v>0.0204657644795332</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1718300153.245443</v>
+        <v>1997346966.928316</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08469922542873905</v>
+        <v>0.0888495334004618</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02671245726616011</v>
+        <v>0.03316265591593909</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2187391048.670834</v>
+        <v>1587897922.770481</v>
       </c>
       <c r="F45" t="n">
-        <v>0.157679986682431</v>
+        <v>0.1649335199134893</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04364022442073189</v>
+        <v>0.04722374810298938</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4047712676.623362</v>
+        <v>3498824981.506988</v>
       </c>
       <c r="F46" t="n">
-        <v>0.118283745941161</v>
+        <v>0.1375437451690016</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05636538515617289</v>
+        <v>0.03927940049049081</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>79</v>
+      </c>
+      <c r="J46" t="n">
+        <v>139</v>
+      </c>
+      <c r="K46" t="n">
+        <v>121.370382280981</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5193330268.503676</v>
+        <v>3143238539.43013</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1477427760767029</v>
+        <v>0.148304289400423</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04459508129267281</v>
+        <v>0.05098771102586241</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>62</v>
+      </c>
+      <c r="J47" t="n">
+        <v>139</v>
+      </c>
+      <c r="K47" t="n">
+        <v>81.21288134215939</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3285839312.348618</v>
+        <v>3487669247.930638</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0896319028727299</v>
+        <v>0.1041947826891</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02841076142133628</v>
+        <v>0.02530581282576597</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>58</v>
+      </c>
+      <c r="J48" t="n">
+        <v>139</v>
+      </c>
+      <c r="K48" t="n">
+        <v>121.5442348230711</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1609438819.930766</v>
+        <v>1383995640.477454</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1574212796022384</v>
+        <v>0.1286260944072495</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03449730695242053</v>
+        <v>0.04038900139335533</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3443329905.736382</v>
+        <v>3860701580.257452</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1333269913710325</v>
+        <v>0.1583743795783955</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05257298452034905</v>
+        <v>0.03692408061706288</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" t="n">
+        <v>139</v>
+      </c>
+      <c r="K50" t="n">
+        <v>141.7775874207751</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>974919213.4539274</v>
+        <v>1481095783.705539</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1688857242745754</v>
+        <v>0.1776870959545608</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03966194209335195</v>
+        <v>0.04168456538818636</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2269,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3276182898.958888</v>
+        <v>3366444302.053314</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0838654581200456</v>
+        <v>0.1202915941802823</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05510010385093395</v>
+        <v>0.04957986460977831</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>105</v>
+      </c>
+      <c r="J52" t="n">
+        <v>139</v>
+      </c>
+      <c r="K52" t="n">
+        <v>113.9759051213985</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2456970179.454074</v>
+        <v>3531409679.670114</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1303561331124583</v>
+        <v>0.1490549705257923</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03500479683116549</v>
+        <v>0.03256898891990289</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>17</v>
+      </c>
+      <c r="J53" t="n">
+        <v>137</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4521712016.960209</v>
+        <v>4546314405.762635</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1304372264097794</v>
+        <v>0.1593583503137824</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04817284468929593</v>
+        <v>0.05055742728448604</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>64</v>
+      </c>
+      <c r="J54" t="n">
+        <v>140</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2376,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4224699241.276307</v>
+        <v>4769595623.218184</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2109817140476427</v>
+        <v>0.1752951771169756</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02213680086590618</v>
+        <v>0.02660611879656734</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>64</v>
+      </c>
+      <c r="J55" t="n">
+        <v>140</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1562207934.64663</v>
+        <v>1738096602.675951</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1587119513701206</v>
+        <v>0.1384047720362571</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05446942673590991</v>
+        <v>0.04949755958246525</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3393403942.160646</v>
+        <v>3486508468.510876</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1426255303130565</v>
+        <v>0.141961445097091</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02088502222618298</v>
+        <v>0.01996059216099366</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>56</v>
+      </c>
+      <c r="J57" t="n">
+        <v>138</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1697860527.388419</v>
+        <v>1153317395.069558</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1497616546757277</v>
+        <v>0.1243473558619232</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02551962206688179</v>
+        <v>0.03845826832716633</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3690913378.481228</v>
+        <v>3800871784.643118</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1276565776521311</v>
+        <v>0.08526210505665399</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04620464096017603</v>
+        <v>0.04930742619337823</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>68</v>
+      </c>
+      <c r="J59" t="n">
+        <v>139</v>
+      </c>
+      <c r="K59" t="n">
+        <v>133.9236051451316</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3031186634.375116</v>
+        <v>2864279100.141691</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1373909784968236</v>
+        <v>0.1261758038161044</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02394115221528439</v>
+        <v>0.02659102194242297</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
+      <c r="J60" t="n">
+        <v>137</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2413623523.580118</v>
+        <v>2798571713.511951</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1712239696120402</v>
+        <v>0.1671647923450257</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02198009797202523</v>
+        <v>0.02197615474962063</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1894148615.248912</v>
+        <v>1376929317.756128</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1816765831829006</v>
+        <v>0.1179474231236617</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04006901070460776</v>
+        <v>0.04580257885615113</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4084586780.645885</v>
+        <v>4533788283.789916</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08396652077793855</v>
+        <v>0.1078580293154753</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04536261733432183</v>
+        <v>0.03028781564762628</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>68</v>
+      </c>
+      <c r="J63" t="n">
+        <v>140</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5232014647.769719</v>
+        <v>5388280874.614209</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1446382804394502</v>
+        <v>0.1284654127645254</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03057677735991993</v>
+        <v>0.03549309649536768</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>69</v>
+      </c>
+      <c r="J64" t="n">
+        <v>140</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4836646080.419448</v>
+        <v>5828117334.122435</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1662453598918149</v>
+        <v>0.1507870419798855</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02183971337401602</v>
+        <v>0.02665356017120216</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>117</v>
+      </c>
+      <c r="J65" t="n">
+        <v>140</v>
+      </c>
+      <c r="K65" t="n">
+        <v>145.8697423167141</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3539815948.124771</v>
+        <v>5370288473.908568</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1419819604045794</v>
+        <v>0.1096694328637528</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03453524086815064</v>
+        <v>0.04842157420443784</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>69</v>
+      </c>
+      <c r="J66" t="n">
+        <v>139</v>
+      </c>
+      <c r="K66" t="n">
+        <v>131.9903459880013</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3383792741.527158</v>
+        <v>2678806395.253379</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08915698587775724</v>
+        <v>0.0635076331948394</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03203661850182876</v>
+        <v>0.04351668063929505</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5032059172.036217</v>
+        <v>5442972787.795251</v>
       </c>
       <c r="F68" t="n">
-        <v>0.143630026700745</v>
+        <v>0.1336550524871072</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03769641042756838</v>
+        <v>0.03297594469837994</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>70</v>
+      </c>
+      <c r="J68" t="n">
+        <v>140</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2160221940.662203</v>
+        <v>1870880213.374027</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1507370975280041</v>
+        <v>0.15768827995762</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03676734627733986</v>
+        <v>0.04062409266868522</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3474888106.415524</v>
+        <v>3548059009.633051</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09799630023186644</v>
+        <v>0.08874722545338135</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04843319772294471</v>
+        <v>0.04167707357741256</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>140</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3692449011.635375</v>
+        <v>4307001835.297666</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1359965804677815</v>
+        <v>0.1612979042365003</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03298522724851845</v>
+        <v>0.03368958974993279</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>112</v>
+      </c>
+      <c r="J71" t="n">
+        <v>140</v>
+      </c>
+      <c r="K71" t="n">
+        <v>145.2138602213696</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1697832693.147398</v>
+        <v>2165913240.701047</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07742866491886027</v>
+        <v>0.1059395476402793</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03818508351665005</v>
+        <v>0.03536869871964921</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3462354859.547281</v>
+        <v>3538077380.121146</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1043631631450584</v>
+        <v>0.1046982638114548</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05003099372664657</v>
+        <v>0.05280804338102062</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2551121704.283655</v>
+        <v>3174814245.360236</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1330119762370344</v>
+        <v>0.1811661965826084</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03106409864670487</v>
+        <v>0.02197883882416831</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>45</v>
+      </c>
+      <c r="J74" t="n">
+        <v>136</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1524929765.653234</v>
+        <v>2005892786.24213</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1204229962316052</v>
+        <v>0.1411934264493691</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02951088858193654</v>
+        <v>0.03402744163029265</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3440534287.301031</v>
+        <v>3437230331.510404</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1049854244755901</v>
+        <v>0.08148178464421411</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03016695299250279</v>
+        <v>0.02795064812534688</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>64</v>
+      </c>
+      <c r="J76" t="n">
+        <v>138</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1601516483.24668</v>
+        <v>2114385343.140795</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1537225807521539</v>
+        <v>0.1489183403314556</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02073356721434448</v>
+        <v>0.02715535387559091</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3977640583.824901</v>
+        <v>4680116476.0457</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09012722331782379</v>
+        <v>0.09897786190229796</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04861024634176922</v>
+        <v>0.04146538570359938</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>68</v>
+      </c>
+      <c r="J78" t="n">
+        <v>140</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3224,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1235546188.580964</v>
+        <v>1561359504.246513</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1520793818850417</v>
+        <v>0.1640478044154484</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02938337343629356</v>
+        <v>0.02612094968251251</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3259,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4753820040.461439</v>
+        <v>5167502670.191593</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1106384133826629</v>
+        <v>0.08701671415047736</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0387447392746325</v>
+        <v>0.02766744104427488</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>68</v>
+      </c>
+      <c r="J80" t="n">
+        <v>139</v>
+      </c>
+      <c r="K80" t="n">
+        <v>106.803793798932</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5015910523.026982</v>
+        <v>3800881428.137418</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1311638186471292</v>
+        <v>0.09896383515469145</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03290689533376395</v>
+        <v>0.03277197513090083</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>64</v>
+      </c>
+      <c r="J81" t="n">
+        <v>139</v>
+      </c>
+      <c r="K81" t="n">
+        <v>122.995161916597</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5454403275.543078</v>
+        <v>5215627817.258825</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1581115986496984</v>
+        <v>0.1494377140442622</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01812091142776058</v>
+        <v>0.0264003344786972</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>100</v>
+      </c>
+      <c r="J82" t="n">
+        <v>140</v>
+      </c>
+      <c r="K82" t="n">
+        <v>152.5405915392921</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1516761719.813959</v>
+        <v>1762580707.924604</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1118708010908303</v>
+        <v>0.09701410785971565</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03711222018862779</v>
+        <v>0.03756328288344089</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1605757954.277552</v>
+        <v>1980429011.559142</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09119936170452743</v>
+        <v>0.1144698930925714</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0456539056040083</v>
+        <v>0.03426839312801862</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2218163656.27983</v>
+        <v>3574864793.009802</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1447528852946758</v>
+        <v>0.1200181195686123</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05418962711287188</v>
+        <v>0.0390002921539086</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>22</v>
+      </c>
+      <c r="J85" t="n">
+        <v>140</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2671234270.978051</v>
+        <v>1865868658.343239</v>
       </c>
       <c r="F86" t="n">
-        <v>0.135304203513425</v>
+        <v>0.1430651300994109</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02154553284490274</v>
+        <v>0.02587527357330338</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1258492234.764284</v>
+        <v>1012250453.416313</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1656044531400455</v>
+        <v>0.1844512703536056</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04445881391958729</v>
+        <v>0.03564856038922536</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3345312051.656713</v>
+        <v>2512495710.910697</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1713567151382246</v>
+        <v>0.1389321708847516</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02767180349508671</v>
+        <v>0.03578737953381284</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2284042593.817102</v>
+        <v>2243162054.909029</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1240277982254764</v>
+        <v>0.1461962002116367</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03482470987366802</v>
+        <v>0.0275238735508512</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1871251634.770686</v>
+        <v>1810682892.42925</v>
       </c>
       <c r="F90" t="n">
-        <v>0.131401793595027</v>
+        <v>0.0940935752269319</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0392537903068062</v>
+        <v>0.03891551600106717</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1721368037.641738</v>
+        <v>1783681997.30508</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1816159612282083</v>
+        <v>0.1558560802215136</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04351517156560927</v>
+        <v>0.03995325808054957</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2599517107.879269</v>
+        <v>2203030363.179297</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1014191691216291</v>
+        <v>0.09686884037096045</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03052069583161969</v>
+        <v>0.03272218881368602</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3512767795.074089</v>
+        <v>4508993636.939319</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1009280387206483</v>
+        <v>0.1251180933151868</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03595287697622923</v>
+        <v>0.03320754868906212</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>63</v>
+      </c>
+      <c r="J93" t="n">
+        <v>139</v>
+      </c>
+      <c r="K93" t="n">
+        <v>134.4942434310417</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1735655918.84498</v>
+        <v>1702989986.073149</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1341427152488615</v>
+        <v>0.1652749595914674</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04257228801232988</v>
+        <v>0.03648936385944269</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3001820697.765208</v>
+        <v>2872956169.026402</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09020245973608466</v>
+        <v>0.1231451995255401</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05237857544877869</v>
+        <v>0.03773061758197992</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1982612126.044757</v>
+        <v>2221462163.509718</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1353773850152715</v>
+        <v>0.1121402692854682</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03509061725269987</v>
+        <v>0.0423384207461131</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3446815059.282883</v>
+        <v>3431454671.031255</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1682286778980414</v>
+        <v>0.1109907438752143</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02908033569188236</v>
+        <v>0.01957825899838111</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>67</v>
+      </c>
+      <c r="J97" t="n">
+        <v>139</v>
+      </c>
+      <c r="K97" t="n">
+        <v>114.2063633594541</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3828906847.908945</v>
+        <v>2553413580.999424</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08893626473190801</v>
+        <v>0.0801567518228558</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02640211281413355</v>
+        <v>0.0257610913684771</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>33</v>
+      </c>
+      <c r="J98" t="n">
+        <v>139</v>
+      </c>
+      <c r="K98" t="n">
+        <v>56.32669061361822</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2728957335.151245</v>
+        <v>2362726445.666694</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09978184929099873</v>
+        <v>0.09080476951382239</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03110246757667975</v>
+        <v>0.03348489725851671</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4147032391.319889</v>
+        <v>3736652515.708176</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1732074634861846</v>
+        <v>0.1384595146857715</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02588167533519311</v>
+        <v>0.01860153925838009</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>57</v>
+      </c>
+      <c r="J100" t="n">
+        <v>140</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3040004572.795445</v>
+        <v>2190056338.195229</v>
       </c>
       <c r="F101" t="n">
-        <v>0.210576379151275</v>
+        <v>0.1964007140182005</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0551829469289649</v>
+        <v>0.04809724700936988</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>138</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
